--- a/RE-Framework 템플릿/Data/Output/네이버쇼핑.xlsx
+++ b/RE-Framework 템플릿/Data/Output/네이버쇼핑.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
   <x:si>
     <x:t>상품명</x:t>
   </x:si>
@@ -30,7 +30,7 @@
     <x:t>삼성전자 오디세이 OLED G8 LS27FG810 68~69cm(27인치)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://ader.naver.com/v1/ucPjDSNDpeY5enNMpK096LMMqNds2PEJYm1EKaLFzWX-CcRErYVeX6ALf0TbM9aLSSNWSpemIgTKkCkS5vSY8hsGRHOWU4H2Hsskex45JKNoebTkSH6vMYJn5e5Gb1PMimpw84O-7mkfOM_HFR7zoUuGXJGAllAQjZjVaO0HfT4Wr83SoYieMkuDMoxeXRnA_rXFl0YuxksKHVas1JCUg01RtTqBJRaD8TEAsodISCd0fwzyKYoUPZ86kbCeDM1p5X0x-L_MXVjEqjQ1QmuWMCFiG8WOgFxKnmKIWME8yr-9a-Y5o-78h3X90EjvpN8rw8KIQYhJtQmL_ybzJtPL0FXZbXmhqB2QUUs68I_BeDnqsjbefttmqVxxc8xEv-Zd?c=nshop.npla&amp;t=0</x:t>
+    <x:t>https://ader.naver.com/v1/ucPjDSNDpeY5enNMpK096JWECZGhu0pFMTwfg3i0PUvIGcglovnflHzBWhmHiQFsCirEaAMtRMnOI70cbPygta1zdtcIXxpgrZwZdkvpVaqg_0OIa2Q40mwP3MCHyIbDSdJpSDSXJq5src-hrST3F-Fx7MHeZvVInUKhIetMsT89DEYZ4JjRd2QrLrDisDFfvNzLKMxRRhiT8w3Xf4PDxlSiOAOsMkFGJou7LCcIEP1eGu_LUhkHXm5u9N_7qe2DwqMjb7AoARMvBHkpWR1HfKp9qx84_opDAPC8rKcYtX52SfRXU802kQJSLNtw5f_xdxD_WtjLgJBAuVwaBgYLo44TVlwhGcbVAsK6jvTA6C1_MpJ5B7TvlbdbXB05ngyi?c=nshop.npla&amp;t=0</x:t>
   </x:si>
   <x:si>
     <x:t>1,450,000</x:t>
@@ -39,37 +39,37 @@
     <x:t>삼성전자 고해상도 뷰피니티 S7 93~94cm(37인치)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://ader.naver.com/v1/7zz_WsnA2QUY0WcWK_JdDepIFX77xH-mRTfxj686YwR_VMnje8kYdp1KEQ1jGNmRKRK7LNaFnVB_P43HtFlhK969c80eilv4NlExSb9diu5wHp8XvkFTjeAVovhrpx1LpCO1aurmE1wVCYSBbmHF9-tbtyifE2onsPNbPV0e8-P7uya06FxIbcstcgYHcbdkU-C3MaDZD7AlY7aHKfhfppWeFiWlSEkZYwo9VRJa6PNIHs6Xm0KDvrQp_lp5SrKJxgLaXLN-pJ5GIlNgz0NcF_Lq_Dg8gxIVAFvGPykDo8AW46WRLvB7vXdxLRrPJohLK8TFgW0mx45YpG3bl296Z2r1wv1wqbw_LKqchH09m-5RCQHydTVHzaoi7roQ969h?c=nshop.npla&amp;t=0</x:t>
+    <x:t>https://ader.naver.com/v1/7zz_WsnA2QUY0WcWK_JdDfKcigcTkY_mwPqvYN6_SzcLo5wpn6QrQ6kSYIZCuJp6MycvFIN00qy5nvnSIkyoXHk2IqVIr4xjgpO5GV6HhiHz4Fbc6vHgEPCTBURRftBWrglUMBmwoMAWkS4acJD9d6G9-5Qop_EV1_J35yrjD0kh3qhlBBD9lrwqgDwnUm90PvCI7xyLT5mUJcDL7nW6zEM3XT7LQnuwOGNnfme1s3vDgpkkgp7SSZC4jAw-NQUr_c9L4OfD07bSMPgxOH1c4jjZvv1PeYAULp4HcsU8eWeo--E0uthyD44Qknqw9SYgBM3qn8J-p4PIJQvogm6pqjAUeqQcnIx45eaeWbmCkKntIc0vRiDun220zSY3ljDZ?c=nshop.npla&amp;t=0</x:t>
   </x:si>
   <x:si>
     <x:t>499,000</x:t>
   </x:si>
   <x:si>
-    <x:t>MSI MP251W E2 62~64cm(25인치)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ader.naver.com/v1/ucPjDSNDpeY5enNMpK096KOy4iPu1iFDCFKtD3v8kUBQhelViotwE6L5hbimh7m0j-r8O_6c511fuAri2WFK7ClT6ZvQxlgzQ8Q0lhDtKXPWOFwrNWfpsWsUiXB1jvBi9zRNHCcpCHIoxJX19zP5qzUsFswzH2Jp6lunHohV95ER90rE3lQlyrXH73aMizSHyNWcGbojdmdnvvRW3D1YAgx2WopzuXnvUXWnd_V2epeRZDfgcJ_AWkVCVbhZ0k5WNFpnil4tqw-SdnQlN3gFTUdMEXZnwZNKFCIxWkB1FB8H2fDcX1daX6QSqsAIfzgRMKW_BZTiW12kpMU0HBhKxZ5zEePK8rutQfA8X_e0IUYAzcKNoq3VYcA4L0W_4_Or?c=nshop.npla&amp;t=0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MSI G274F 무결점 68~69cm(27인치)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://ader.naver.com/v1/A-mtrLS7TANI6zVTQDlQ1E8tzJSdpIv0LLnspNL56GGyuSBbOXOTRf62XhpUNvW5QexGhnqFkv5p9q0Zw1qvX6pFTdi2Et7si4bB6k-jdZMT-rYbSEzWkCA1geq-8X5Y8HjzYUcSJBGVq6tMSUrVFBDnskG1UymXJWjWPoTBNnsLm_EOd6KCINPO2MX1pwrun_LPoGvqA_7jjVKwI4fKkqPfJNZIhcxjrykQ6RG5MpTYi-o6L0MgT4Aj9fAoqiDyuPxSzWJjFYmot0Vu2D-s1MkqDPGw2rr_NnXgtDJb06nDPCS1rK7Qxedcm9q2zNY00jChFpbZBONTGUGmN6wlrLh_-MhpjwRIBXD_01brfeLZ2nK9sutODLTYBz7JAeQP?c=nshop.npla&amp;t=0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201,890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 108~110cm(43인치)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr?x=xA2MFGxR%2F2J3vMcjsdn2Vf%2F%2F%2Fw%3D%3DsLHbJS8Gg6%2FgLstqDng44J1G%2F9yTkCy3JgdG18QGe16n6D9Doef8fQXU6eDjUh3hF6Msv%2FtysDjIxhb4fa3rXpkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27Hg7vLu0pUVan0DQAnFdNiaZ7YCmI37t8U4qcWHBt%2BnwMGzCJazjbdCPoEaZlWq1aZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuUW11wMj%2FobwegiO5zaYRswcFOyB6hrnpC1jsYMXp2uQDG1ZhqS2y6fU54xE7Ue4bLJGTWMs%2F7PXDBvei%2FTje07jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6UWj6xItdm%2FgxCaJmkvnF72ovNxFWzA781dOsDXmXgY1OA%2F6xahyd9aMZMgiV8vyWQFtGqBZ4JMDVK3AWLhCU5clJvHmHhnMjwRrGn83KsZUO%2FEw4MsMjY88V360wKXu05vDxrHi%2F%2F5Y0bynlJB8QfUhOWlMmmMGwW%2BhqK7O%2FzuaQiGQnTA232261kIFnYrT8j3nwTntlMrMUv70Ne%2Bl6EegJ0t7ISO8l0Mqn%2F6%2FxcSxEgOfFCZ5HYvEqObiKSvdUEs8cFUTVf2EXpmSuc9bAhP7hYcLrCYvtcq6Ab5%2FwZykBISjktrn3j%2FMMINiwklSXaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=53016166988&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>509,000</x:t>
+    <x:t>LG전자 울트라기어 27GP750 68~69cm(27인치)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ader.naver.com/v1/yRG62IcR2FWN71OyHezm9rFQlN7izMwWGWd82Z_DEEV0N3qubi0zlrIg90E8Xmcy6sM5-MjLNULz-1eYm9_YrbFE7-RtYiqXAPcNJ1qCP5So6acs8yMEbkIgfkhIwP00cFbq4K4wJM3SeECRF_LjkyDcHI98ek_yiYEAC804sWL1zZDU1_Is-Qp3gfqc6qlqCYfjhZpI9Lbtv1hzEhi83sNev9zWIrwgBvR-2aMO_kLHiLEVXlyJdYBo3p8NNwNmAPptLVBPlq5lFOcmI-O9JT5ewWS_8GGwvJ_twN5RKlurnilWV3A9WKj_NZhl_gy8Jd5DvgZH1KEdzgao1BAOAaHes8srPBAnR7CebKCUnrGTh3dNYQLlpLqLfOvptyY4?c=nshop.npla&amp;t=0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어드밴스원디앤티 어드밴스원 MF34UW100WH 86~87cm(34인치)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ader.naver.com/v1/HD7O7BU8gNJ2jtC9akVhaEOSKwAnk27tLoYI46cr1fX0VCTGFAdvUAHbJrp386Ws1gQfdrYQ_lQOqIVcWfN96TsE5X2GZn5HyCWheYm-BBEmo9BvlFDasham6X5b2-1Y-se_TrkbTGrooNnd4vTNM5EZ_wDLMuM7YO-aveo95byc1Ow-HK1qJ0ob9KtH_R4tG8oeJhwRncr6Drdpl0szYoU7YED93K7AFIkTTJ4KVmNgA_UkD7eM4T8NUK2ax2Y5d07u83DCwtfzogLvzJUSP_-dDai4MSBBhKZh0AieJtCuxEh2Z3Tt-Sk9dYSilfxJzcI7OVWBM-Q718ghiQFqMhgenC2yZOxioLp3GRd1uvhn3Fr2RCCZfa6_X0zdvB5n?c=nshop.npla&amp;t=0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>269,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 80~81cm(32인치)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr?x=dBakxVeCQHCwSd3TZ1vCSv%2F%2F%2Fw%3D%3DsNFyFWvGEsjqQyb4une3grdgJwbpdKYaxce2l7P6HT5j6D9Doef8fQXU6eDjUh3hFxdhiz4LyfTGOidCd4NzTN0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27EXLx8eeF072XmWqva3cILepAoEGXTj7qr3udzkZSUAWamcIvqtdfN09NAaSUoWaxZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuUW11wMj%2FobwegiO5zaYRsYVgQl56d%2FRgYa%2FR6HA8XxADG1ZhqS2y6fU54xE7Ue4bLJGTWMs%2F7PXDBvei%2FTje07jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6qffCMVmxTRYICGbbREGapmovNxFWzA781dOsDXmXgY1OA%2F6xahyd9aMZMgiV8vyWy78A4Tpv2PclwsW%2FdZszw8lJvHmHhnMjwRrGn83KsZUO%2FEw4MsMjY88V360wKXu05vDxrHi%2F%2F5Y0bynlJB8Qfbs1o%2BrxmOAQIMBrVCFpoBXSMIdd2cn%2FqbCDDqjYxyoEiy5ykSipPl57Lqy0Hh2bnDeKKJi2sWRgBM4M%2FhawEYyPQUjdy5cifxN9QzCgkwmf%2BgtF15PMkmjkNDmi88yMRWtnFZHFoaueuDro8XTgiA%2BmgXsJl0fYkkzEm2z4%2B2BFhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=53016157336&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>396,990</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 32MN500MW 80~81cm(32인치)</x:t>
@@ -81,9 +81,6 @@
     <x:t>229,870</x:t>
   </x:si>
   <x:si>
-    <x:t>삼성전자 스마트모니터 M7 80~81cm(32인치)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cr.shopping.naver.com/adcr?x=MpxlpvhPH4b8cVMITYArB%2F%2F%2F%2Fw%3D%3DsuFk2BCLS%2FTi9BZX7s1yX16vA72vKUIPWf%2FHDFV7Zn836D9Doef8fQXU6eDjUh3hFs059vYXp6K1B4Jmbu5LasEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27Hg7vLu0pUVan0DQAnFdNiaZ7YCmI37t8U4qcWHBt%2BnwMGzCJazjbdCPoEaZlWq1aZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuUW11wMj%2FobwegiO5zaYRsSoHTh4aXz%2FT6ePIgl9TVHgDG1ZhqS2y6fU54xE7Ue4bLJGTWMs%2F7PXDBvei%2FTje07jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6Lp7r9XL%2BT5XIbig14TekNWovNxFWzA781dOsDXmXgY1OA%2F6xahyd9aMZMgiV8vyWqAr5N%2F%2F4emmprQw3dORpj8lJvHmHhnMjwRrGn83KsZUO%2FEw4MsMjY88V360wKXu05vDxrHi%2F%2F5Y0bynlJB8Qfbs1o%2BrxmOAQIMBrVCFpoBXSMIdd2cn%2FqbCDDqjYxyoEiy5ykSipPl57Lqy0Hh2bnEMAY8OwznjGImafFwOXMNN%2FCZUaYebh0T51AtIyTWrj%2BgtF15PMkmjkNDmi88yMRb9PfxyYm9sBdBasF0GdJuoZWL%2BcCu98arKBQynP2e0RhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=53016157335&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
@@ -96,9 +93,6 @@
     <x:t>https://cr.shopping.naver.com/adcr?x=XHfQ8PPPhGX2QKFomRrClP%2F%2F%2Fw%3D%3DsKaG2NY%2BZBtbyhSyE00fkzknYpBeLvkct5gTLMndpqPY6zwpooqIi3eDEgfKGenK19gy%2FFOzNUlMPenbEcu0n%2BB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnRk9qZ%2B02Tw%2FZZXfW7qZrnZC55Ii1CyhPw6hC7Z5thDiTLRRZEkpnhn%2FV%2F%2F6HzukyNIphY0gO1Xkwe4kzNPHnIYBsJjzV%2F3vl5Lmd9HbkUGJotLMy4VG0boHew6WOoZg5vHZSNsYb7T4myqf9ZYcPl8I39TemMpwernERAag%2FvFYtPv3bLhbzAZKvZxdKFd9gMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9ZOfA1Cbr1XyhFB%2BVPWEvbCEhb%2B5%2BbgCLWD5ufmjwVaBxgrKyGzgTjgvZMIoXgNJh2Ap63HKeEu%2BS26uzV7wnQ0ce7njbkH1nSJaFIT2vN867H%2BSVoxW%2FfMbysKE1cBc%2B4pcpjNckUtvqt8E%2B1BRhBv%2BOk56C1olOFIbPWdLpAplhh5DuH9XUtEgKa5zvaEnNQbhahnEE1ctQCzreFyaEjWom2PUBabq60pJlIovsdRyWOTBkKWTKV4Onn7aTligd90HR8PMy41N3f9nfVHgAxg1q4RxHKdKf%2Fyis4rudz3STsPSKdbmvk4xJ7IYniW6bVZoNa82soIdMoikkFU%2BaaVdznR4EhPC6BI08fc6TT2xWkbDrUFJ2hBG8QaB8WVzn&amp;nvMid=53787773855&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
-    <x:t>269,000</x:t>
-  </x:si>
-  <x:si>
     <x:t>LG전자 27MR400 68~69cm(27인치)</x:t>
   </x:si>
   <x:si>
@@ -162,15 +156,9 @@
     <x:t>87,000</x:t>
   </x:si>
   <x:si>
-    <x:t>LG전자 울트라기어 27GP750 68~69cm(27인치)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cr.shopping.naver.com/adcr?x=n%2B%2FDh0GKzUpZlx2NobvXJ%2F%2F%2F%2Fw%3D%3Ds01UKFD8hC93Bf%2BUDJmeJiAvKWdy1USFkccbHH6J3BlbkEFD9EqEzeuo8lvy6ZeyvPYGVfTrD0IZB7zcG3rvLotof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWzNVvDfxUN9WPo16lknmdUOA0XiINDZSREyWfRNSb8uZHHRiwPVpamFqIlb7GihiYSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjIK0GTn%2FLsf0q1qVyumga0ADr609MjX9bgZkXm6SoDWtY1oY4KoS51moxjfgM2NiN0IsiuB5I13eMhxKPo4qaB3s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO742O4fvd3KAAdMDXcFVhuOzokh7KNEkkbwBBKOUFOEErg3q9fdxE241m2ni3xPQMDSj3xeUfjVKQ2yXW4%2F8UzeGsBOZZei%2BCNCQ4XeHwQntKlpJ8zW3fRKj88eHVao8P%2FQHd%2FlZFo8gGlGsr8Ni2IFzkclIF2GG4yUphuiFCp6kiLkZMn9hwGKwCrH7fISAh5DoGo%2F7Jaru0cc2qWyIwoyAy4iFHOYdvluUv4jwR4IOC%2FhgaMkJIhbUi8HFdPXAb3hWXzHJvUoQuw8ze6kU9qMNkA%2FCCNQlsP4ylHtFMeIMaFbDf4gHI5rSMJU1BWcIOg&amp;nvMid=52611765708&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
-    <x:t>321,500</x:t>
-  </x:si>
-  <x:si>
     <x:t>삼성전자 오디세이 G5 LS32DG500 80~81cm(32인치)</x:t>
   </x:si>
   <x:si>
@@ -424,9 +412,6 @@
   </x:si>
   <x:si>
     <x:t>87,990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어드밴스원디앤티 어드밴스원 MF34UW100WH 86~87cm(34인치)</x:t>
   </x:si>
   <x:si>
     <x:t>https://ader.naver.com/v1/4g6oatnCcBPhNSz6XOBE-CvZT4g3XYTgfZWqkhIdF06IHrrlYKj208QrfkZudzVfoWKXqdZ6QgFpePxtohLYmimK3VmP_O2HDDoWp3fj1IFl8EdAsnFXJEg1ECWvGgR3TMpdZfO-mWDIaj59iJJ76iCL2Km2Zlw6hPAuxDNut9DzcFaGnhi17QdafvUTYjHOJRYb9gfIYrRrXUv81FxQdQE6oMNnu2f9hkWGcOhNcgbN9zWzLgRqy8Q2KMBipB6Y3X08aEeE57uIKJxWrF1y0VbPIQSK6AC9Kh_tFK8IzpiOIVNHU_zdCAvhRg-ZnHkPCZJR8mlfOvPcClYxPfkOlhx-Z23rbex-znQd9U2BwgAaVeF5F3g7RAZmJMQL2eBz?c=nshop.npla&amp;t=0</x:t>
@@ -1912,541 +1897,541 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2482,607 +2467,607 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3118,607 +3103,607 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>412</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>421</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>424</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>433</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>436</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>439</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>442</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>448</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>454</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>457</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>475</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>478</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
